--- a/data/trans_orig/IP19C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C2FC43-1575-4B2D-B4D7-D711861EE6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{106ADAFC-E542-45A8-BC84-BA5C8F66005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DE10C6A-417A-449E-BDF6-45122C9D8AB7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9000CDA1-EE6E-4BA4-A59C-3526AC50FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="260">
   <si>
     <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -77,760 +77,748 @@
     <t>8,18%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2016 (Tasa respuesta: 48,73%)</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2015 (Tasa respuesta: 48,73%)</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>98,8%</t>
   </si>
   <si>
     <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AB7BF1-5EAC-476D-9CAC-6099D0D18F17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36A06B7-3C24-458F-9B2D-698ECFB18C94}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1993,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C687C3D-06AD-4CE1-AF54-CA4C4CBD26CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE58D152-8A46-411A-BB69-9AB3EDD850B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2505,7 +2493,7 @@
         <v>229</v>
       </c>
       <c r="N11" s="7">
-        <v>161279</v>
+        <v>161278</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>137</v>
@@ -2556,7 +2544,7 @@
         <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>167674</v>
+        <v>167673</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2744,7 +2732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91E70B2-4645-45A2-BEC6-A72926D72D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6A7F62-816D-4697-893C-13543BA326D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3023,10 +3011,10 @@
         <v>8286</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>166</v>
@@ -3059,7 +3047,7 @@
         <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3062,13 @@
         <v>243034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>353</v>
@@ -3089,13 +3077,13 @@
         <v>240676</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>687</v>
@@ -3104,13 +3092,13 @@
         <v>483709</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3166,13 @@
         <v>1426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3193,13 +3181,13 @@
         <v>1769</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3208,13 +3196,13 @@
         <v>3196</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,10 +3217,10 @@
         <v>86272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>62</v>
@@ -3244,13 +3232,13 @@
         <v>85971</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -3259,13 +3247,13 @@
         <v>172241</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3321,13 @@
         <v>9713</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3351,10 +3339,10 @@
         <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3363,13 +3351,13 @@
         <v>23546</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3372,13 @@
         <v>357445</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>507</v>
@@ -3402,10 +3390,10 @@
         <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1002</v>
@@ -3414,10 +3402,10 @@
         <v>706230</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>210</v>
@@ -3495,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22C60BE-5CE2-4B6F-AED7-F8207471FD4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7E7EA-99E8-42D7-9A07-84B39A07128B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3780,7 +3768,7 @@
         <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3789,13 +3777,13 @@
         <v>6220</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>57</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3804,13 +3792,13 @@
         <v>14966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,10 +3813,10 @@
         <v>301985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>231</v>
@@ -3840,13 +3828,13 @@
         <v>262229</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>725</v>
@@ -3855,13 +3843,13 @@
         <v>564215</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3917,13 @@
         <v>5906</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3947,10 +3935,10 @@
         <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3959,13 +3947,13 @@
         <v>8558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3968,13 @@
         <v>123737</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -3998,7 +3986,7 @@
         <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>248</v>
@@ -4084,13 +4072,13 @@
         <v>15764</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4099,13 +4087,13 @@
         <v>8873</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -4114,13 +4102,13 @@
         <v>24636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4123,13 @@
         <v>449039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>541</v>
@@ -4150,13 +4138,13 @@
         <v>391151</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>1095</v>
@@ -4165,13 +4153,13 @@
         <v>840190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{106ADAFC-E542-45A8-BC84-BA5C8F66005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B3CD45-645F-406A-B88F-0B75E027D52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9000CDA1-EE6E-4BA4-A59C-3526AC50FB88}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D335B6A0-6EBC-4865-B357-B699A1D0303E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="260">
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2007 (Tasa respuesta: 50,71%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="268">
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2007 (Tasa respuesta: 50,71%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,688 +137,712 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>94,87%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>6,5%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>93,55%</t>
+    <t>93,5%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>6,93%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>93,07%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2016 (Tasa respuesta: 48,73%)</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2016 (Tasa respuesta: 48,73%)</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36A06B7-3C24-458F-9B2D-698ECFB18C94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86F137-234A-40EF-B8F6-C9FFF639398F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>3510</v>
+        <v>3055</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1363,10 +1387,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>3055</v>
+        <v>3510</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1399,10 +1423,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7">
-        <v>39381</v>
+        <v>43871</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1414,10 +1438,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>43871</v>
+        <v>39381</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1450,25 +1474,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42891</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46926</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1503,10 +1527,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>12600</v>
+        <v>11863</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1518,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>11863</v>
+        <v>12600</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1554,10 +1578,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="D8" s="7">
-        <v>233123</v>
+        <v>216459</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1569,10 +1593,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="I8" s="7">
-        <v>216459</v>
+        <v>233123</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1605,25 +1629,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>245723</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>343</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228322</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1658,10 +1682,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>1363</v>
+        <v>5117</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1673,10 +1697,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>5117</v>
+        <v>1363</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1709,10 +1733,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D11" s="7">
-        <v>71754</v>
+        <v>70566</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1724,10 +1748,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I11" s="7">
-        <v>70566</v>
+        <v>71754</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1763,7 +1787,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="7">
-        <v>73117</v>
+        <v>75683</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1778,7 +1802,7 @@
         <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>75683</v>
+        <v>73117</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1813,10 +1837,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>17473</v>
+        <v>20035</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1828,19 +1852,19 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>20035</v>
+        <v>17473</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -1849,13 +1873,13 @@
         <v>37508</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,34 +1888,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>493</v>
+      </c>
+      <c r="D14" s="7">
+        <v>330895</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
         <v>519</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>344258</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>493</v>
-      </c>
-      <c r="I14" s="7">
-        <v>330895</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>1012</v>
@@ -1900,13 +1924,13 @@
         <v>675153</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,25 +1939,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>522</v>
+      </c>
+      <c r="D15" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>361731</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>522</v>
-      </c>
-      <c r="I15" s="7">
-        <v>350930</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1962,7 +1986,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE58D152-8A46-411A-BB69-9AB3EDD850B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001D5A19-5081-4B40-B745-2AA9F6A1CA7E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1998,7 +2022,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2099,34 +2123,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1919</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2135,13 +2159,13 @@
         <v>1919</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,34 +2174,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47964</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
         <v>56</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>41044</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="7">
-        <v>69</v>
-      </c>
-      <c r="I5" s="7">
-        <v>47964</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M5" s="7">
         <v>125</v>
@@ -2186,13 +2210,13 @@
         <v>89009</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,25 +2225,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47964</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42963</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47964</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2254,34 +2278,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11431</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="7">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>8958</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="7">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11431</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -2290,13 +2314,13 @@
         <v>20389</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,34 +2329,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>299</v>
+      </c>
+      <c r="D8" s="7">
+        <v>209047</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="7">
         <v>334</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>231955</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="7">
-        <v>299</v>
-      </c>
-      <c r="I8" s="7">
-        <v>209047</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>633</v>
@@ -2341,13 +2365,13 @@
         <v>441002</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,25 +2380,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>315</v>
+      </c>
+      <c r="D9" s="7">
+        <v>220478</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>240913</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>315</v>
-      </c>
-      <c r="I9" s="7">
-        <v>220478</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2409,34 +2433,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3481</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2913</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3481</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2445,13 +2469,13 @@
         <v>6395</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,34 +2484,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>115</v>
+      </c>
+      <c r="D11" s="7">
+        <v>82067</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="7">
         <v>114</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>79212</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="7">
-        <v>115</v>
-      </c>
-      <c r="I11" s="7">
-        <v>82067</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>229</v>
@@ -2496,13 +2520,13 @@
         <v>161278</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,25 +2535,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <v>85548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>118</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>82125</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7">
-        <v>85548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2564,34 +2588,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14912</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>13790</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="7">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14912</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -2600,13 +2624,13 @@
         <v>28703</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,49 +2639,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>483</v>
+      </c>
+      <c r="D14" s="7">
+        <v>339079</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="7">
         <v>504</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>352212</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="7">
-        <v>483</v>
-      </c>
-      <c r="I14" s="7">
-        <v>339079</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>987</v>
       </c>
       <c r="N14" s="7">
-        <v>691289</v>
+        <v>691290</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,25 +2690,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>504</v>
+      </c>
+      <c r="D15" s="7">
+        <v>353991</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>366002</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>504</v>
-      </c>
-      <c r="I15" s="7">
-        <v>353991</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2699,7 +2723,7 @@
         <v>1028</v>
       </c>
       <c r="N15" s="7">
-        <v>719992</v>
+        <v>719993</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2713,7 +2737,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +2756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6A7F62-816D-4697-893C-13543BA326D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D316E65-E690-4E62-B902-C81D1010C660}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2749,7 +2773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2856,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2871,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2886,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,31 +2925,31 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22139</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
         <v>40</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>28141</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>33</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22139</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2937,10 +2961,10 @@
         <v>50280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -2952,25 +2976,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22139</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>40</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>28141</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22139</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3005,34 +3029,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12064</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>8286</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>12064</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3041,13 +3065,13 @@
         <v>20350</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,10 +3080,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="D8" s="7">
-        <v>243034</v>
+        <v>240676</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>172</v>
@@ -3068,22 +3092,22 @@
         <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="I8" s="7">
-        <v>240676</v>
+        <v>243034</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>687</v>
@@ -3092,13 +3116,13 @@
         <v>483709</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,25 +3131,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>370</v>
+      </c>
+      <c r="D9" s="7">
+        <v>252740</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>346</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>251320</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>370</v>
-      </c>
-      <c r="I9" s="7">
-        <v>252740</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3160,34 +3184,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1769</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1426</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1769</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3196,13 +3220,13 @@
         <v>3196</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,31 +3238,31 @@
         <v>121</v>
       </c>
       <c r="D11" s="7">
-        <v>86272</v>
+        <v>85971</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>85971</v>
+        <v>86272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -3247,13 +3271,13 @@
         <v>172241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,25 +3286,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>124</v>
+      </c>
+      <c r="D12" s="7">
+        <v>87740</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>123</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>87698</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>124</v>
-      </c>
-      <c r="I12" s="7">
-        <v>87740</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3315,34 +3339,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>9713</v>
+        <v>13833</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>197</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>13833</v>
+        <v>9713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3366,34 +3390,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>507</v>
+      </c>
+      <c r="D14" s="7">
+        <v>348785</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
         <v>495</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>357445</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H14" s="7">
-        <v>507</v>
-      </c>
-      <c r="I14" s="7">
-        <v>348785</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>1002</v>
@@ -3402,13 +3426,13 @@
         <v>706230</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,25 +3441,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>527</v>
+      </c>
+      <c r="D15" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>509</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>367158</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>527</v>
-      </c>
-      <c r="I15" s="7">
-        <v>362618</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3464,7 +3488,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3483,7 +3507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7E7EA-99E8-42D7-9A07-84B39A07128B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0843FB34-659F-40D2-B3EC-67C9B75FF767}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3500,7 +3524,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3601,49 +3625,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
-        <v>1112</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>1135</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,49 +3676,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29730</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
         <v>29</v>
       </c>
-      <c r="D5" s="7">
-        <v>23317</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>24349</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="7">
-        <v>37</v>
-      </c>
-      <c r="I5" s="7">
-        <v>29139</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>52456</v>
+        <v>54079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,25 +3727,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29730</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>31</v>
       </c>
-      <c r="D6" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>37</v>
-      </c>
       <c r="I6" s="7">
-        <v>29139</v>
+        <v>25484</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3736,7 +3760,7 @@
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>53568</v>
+        <v>55214</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3756,49 +3780,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6107</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>8746</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>8696</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6220</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>14966</v>
+        <v>14803</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,49 +3831,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>359</v>
+      </c>
+      <c r="D8" s="7">
+        <v>255720</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="7">
         <v>366</v>
       </c>
-      <c r="D8" s="7">
-        <v>301985</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>314319</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="7">
-        <v>359</v>
-      </c>
-      <c r="I8" s="7">
-        <v>262229</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>725</v>
       </c>
       <c r="N8" s="7">
-        <v>564215</v>
+        <v>570039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,25 +3882,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>367</v>
+      </c>
+      <c r="D9" s="7">
+        <v>261827</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
-        <v>310731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>367</v>
-      </c>
       <c r="I9" s="7">
-        <v>268449</v>
+        <v>323015</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3891,7 +3915,7 @@
         <v>739</v>
       </c>
       <c r="N9" s="7">
-        <v>579181</v>
+        <v>584842</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3911,49 +3935,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2561</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
-        <v>5906</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>6538</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2652</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>8558</v>
+        <v>9099</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,31 +3986,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>145</v>
+      </c>
+      <c r="D11" s="7">
+        <v>97515</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="7">
         <v>159</v>
       </c>
-      <c r="D11" s="7">
-        <v>123737</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>129407</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="H11" s="7">
-        <v>145</v>
-      </c>
-      <c r="I11" s="7">
-        <v>99783</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>248</v>
@@ -3995,7 +4019,7 @@
         <v>304</v>
       </c>
       <c r="N11" s="7">
-        <v>223520</v>
+        <v>226922</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>249</v>
@@ -4013,25 +4037,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100076</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>167</v>
       </c>
-      <c r="D12" s="7">
-        <v>129643</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>150</v>
-      </c>
       <c r="I12" s="7">
-        <v>102435</v>
+        <v>135945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4046,7 +4070,7 @@
         <v>317</v>
       </c>
       <c r="N12" s="7">
-        <v>232078</v>
+        <v>236021</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4066,49 +4090,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>15764</v>
+        <v>8668</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>252</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>8873</v>
+        <v>16369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>24636</v>
+        <v>25037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,49 +4141,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>541</v>
+      </c>
+      <c r="D14" s="7">
+        <v>382965</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="7">
         <v>554</v>
       </c>
-      <c r="D14" s="7">
-        <v>449039</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="7">
-        <v>541</v>
-      </c>
       <c r="I14" s="7">
-        <v>391151</v>
+        <v>468075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>1095</v>
       </c>
       <c r="N14" s="7">
-        <v>840190</v>
+        <v>851039</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,25 +4192,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>554</v>
+      </c>
+      <c r="D15" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>554</v>
-      </c>
       <c r="I15" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4201,7 +4225,7 @@
         <v>1124</v>
       </c>
       <c r="N15" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4215,7 +4239,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
